--- a/jpcore-r4/feature/swg5-fix_doseAndRate_coding/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-fix_doseAndRate_coding/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11632" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11632" uniqueCount="1252">
   <si>
     <t>Property</t>
   </si>
@@ -2918,7 +2918,7 @@
     <t>医薬品単位略号を識別するOID。固定値。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
@@ -3611,6 +3611,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -37367,7 +37370,7 @@
         <v>80</v>
       </c>
       <c r="R290" t="s" s="2">
-        <v>933</v>
+        <v>1162</v>
       </c>
       <c r="S290" t="s" s="2">
         <v>80</v>
@@ -37438,7 +37441,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37464,10 +37467,10 @@
         <v>108</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M291" t="s" s="2">
         <v>1000</v>
@@ -37554,7 +37557,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37580,13 +37583,13 @@
         <v>651</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
@@ -37636,7 +37639,7 @@
         <v>80</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>78</v>
@@ -37654,10 +37657,10 @@
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>80</v>
@@ -37668,7 +37671,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37780,7 +37783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37894,7 +37897,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37920,10 +37923,10 @@
         <v>657</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M295" t="s" s="2">
         <v>984</v>
@@ -38010,7 +38013,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38128,7 +38131,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38154,10 +38157,10 @@
         <v>90</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>566</v>
@@ -38244,7 +38247,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38270,10 +38273,10 @@
         <v>102</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>490</v>
@@ -38360,7 +38363,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38386,10 +38389,10 @@
         <v>108</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="M299" t="s" s="2">
         <v>1000</v>
@@ -38476,7 +38479,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38502,10 +38505,10 @@
         <v>224</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>424</v>
@@ -38558,7 +38561,7 @@
         <v>80</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>78</v>
@@ -38579,7 +38582,7 @@
         <v>80</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>462</v>
@@ -38590,7 +38593,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38616,10 +38619,10 @@
         <v>1037</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -38670,7 +38673,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38688,10 +38691,10 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38702,7 +38705,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38814,7 +38817,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38928,7 +38931,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39044,7 +39047,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39070,13 +39073,13 @@
         <v>188</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
@@ -39106,7 +39109,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>80</v>
@@ -39124,7 +39127,7 @@
         <v>80</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>88</v>
@@ -39142,21 +39145,21 @@
         <v>80</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN305" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39268,7 +39271,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39382,7 +39385,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39408,10 +39411,10 @@
         <v>317</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M308" t="s" s="2">
         <v>866</v>
@@ -39498,7 +39501,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39610,7 +39613,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39724,7 +39727,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39750,10 +39753,10 @@
         <v>102</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>330</v>
@@ -39766,7 +39769,7 @@
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R311" t="s" s="2">
         <v>80</v>
@@ -39840,7 +39843,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39954,7 +39957,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -39980,10 +39983,10 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
@@ -40068,7 +40071,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40094,10 +40097,10 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
@@ -40182,7 +40185,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40208,13 +40211,13 @@
         <v>288</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>359</v>
@@ -40298,7 +40301,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40414,7 +40417,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40440,13 +40443,13 @@
         <v>188</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40475,10 +40478,10 @@
         <v>255</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>80</v>
@@ -40496,7 +40499,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40514,21 +40517,21 @@
         <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN317" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40551,13 +40554,13 @@
         <v>80</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>424</v>
@@ -40610,7 +40613,7 @@
         <v>80</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>78</v>
@@ -40625,13 +40628,13 @@
         <v>100</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>80</v>
@@ -40642,11 +40645,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -40665,16 +40668,16 @@
         <v>80</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
@@ -40724,7 +40727,7 @@
         <v>80</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>78</v>
@@ -40745,7 +40748,7 @@
         <v>80</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>80</v>
@@ -40756,7 +40759,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40779,16 +40782,16 @@
         <v>80</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
@@ -40838,7 +40841,7 @@
         <v>80</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>78</v>
@@ -40853,13 +40856,13 @@
         <v>100</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>80</v>
